--- a/Smartphone Comparison Sheet.xlsx
+++ b/Smartphone Comparison Sheet.xlsx
@@ -20,9 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve">SMARTPHONE SELECTION SPREADSHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INR</t>
   </si>
   <si>
     <t xml:space="preserve">Country</t>
@@ -137,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,6 +182,14 @@
       <b val="true"/>
       <sz val="15"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -238,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,7 +273,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -260,6 +286,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,7 +313,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,149 +333,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>6000</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>188</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>15</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <v>16499</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>6000</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>191</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>15</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="6" t="n">
         <v>18499</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>6000</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>15</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="5" t="n">
         <v>13999</v>
       </c>
     </row>
@@ -455,203 +512,203 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>18</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="5" t="n">
         <v>17499</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="n">
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="5" t="n">
         <v>9499</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
-        <v>23</v>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>24</v>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="4" t="n">
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="O27" s="6" t="n">
         <v>13988</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="4" t="n">
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="O28" s="4" t="n">
+      <c r="O28" s="5" t="n">
         <v>11999</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="4" t="n">
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="O29" s="4" t="n">
+      <c r="O29" s="5" t="n">
         <v>8999</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
-        <v>29</v>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="4" t="n">
+      <c r="B37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="O37" s="4" t="n">
+      <c r="O37" s="5" t="n">
         <v>9799</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="4" t="n">
+      <c r="C38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="5" t="n">
         <v>4000</v>
       </c>
-      <c r="O38" s="4" t="n">
+      <c r="O38" s="5" t="n">
         <v>12499</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="4" t="n">
+      <c r="C39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="5" t="n">
         <v>4500</v>
       </c>
-      <c r="O39" s="4" t="n">
+      <c r="O39" s="5" t="n">
         <v>14872</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="5" t="n">
+      <c r="C40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="5" t="n">
         <v>5020</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>22.5</v>
       </c>
       <c r="M40" s="0" t="n">
@@ -662,34 +719,34 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="4" t="n">
+      <c r="C41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="5" t="n">
         <v>5020</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>18</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O41" s="4" t="n">
+      <c r="O41" s="5" t="n">
         <v>13999</v>
       </c>
     </row>
